--- a/All Platforms/All Platforms.xlsx
+++ b/All Platforms/All Platforms.xlsx
@@ -142,13 +142,13 @@
     <t xml:space="preserve">Halted Ruin</t>
   </si>
   <si>
-    <t xml:space="preserve">Tower of Anthumbra</t>
+    <t xml:space="preserve">Tower of Antumbra</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes: There are 5 platforms that are shared by two screens. They’re treated as one platform, that's why total number is 1231.</t>
+    <t xml:space="preserve">Notes: There are 5 platforms that are shared by two screens. They’re treated as one platform, that's why total number is 1231. </t>
   </si>
   <si>
     <t xml:space="preserve">Platform is defined as any surface that the king can stand and jump from. If you cannot walk directly from one surface to another and back without jumping, then these are considered 2 separate platforms. This includes platforms in hidden areas. </t>
@@ -321,7 +321,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
